--- a/배송조회.xlsx
+++ b/배송조회.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkhwang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace_pycharm\delivery_tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -47,116 +47,127 @@
     <t>한진택배</t>
   </si>
   <si>
+    <t>로젠택배</t>
+  </si>
+  <si>
+    <t>경동택배</t>
+  </si>
+  <si>
+    <t>KGB택배</t>
+  </si>
+  <si>
+    <t>http://www.kgbls.co.kr/tracing.asp?number=</t>
+  </si>
+  <si>
+    <t>KG로지스</t>
+  </si>
+  <si>
+    <t>대신택배</t>
+  </si>
+  <si>
+    <t>합동택배</t>
+  </si>
+  <si>
+    <t>http://service.epost.go.kr/trace.RetrieveRegiPrclDeliv.postal?sid1=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.hanjinexpress.hanjin.net/customer/plsql/hddcw07.result?wbl_num=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ilogen.com/d2d/delivery/invoice_search_popup.jsp?viewType=type1&amp;invoiceNum=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.kdexp.com/newDeliverySearch.kd?barcode=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.kgbls.co.kr/tracing.asp?number=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apps.ds3211.co.kr/freight/internalFreightSearch.ht?billno=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.hdexp.co.kr/deliverySearch2.hd?barcode=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송장번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ilogen.com/d2d/delivery/invoice_search_popup.jsp?viewType=type1&amp;invoiceNum=97086683886</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6863233791326</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>613579477731</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90874465242</t>
+  </si>
+  <si>
+    <t>롯데택배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>412179452204</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>613158314751</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>613142601840</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6069509124652</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>613024288002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>613225858134</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CJ대한통운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://www.doortodoor.co.kr/parcel/doortodoor.do?fsp_action=PARC_ACT_002&amp;fsp_cmd=retrieveInvNoACT&amp;invc_no=</t>
-  </si>
-  <si>
-    <t>로젠택배</t>
-  </si>
-  <si>
-    <t>경동택배</t>
-  </si>
-  <si>
-    <t>KGB택배</t>
-  </si>
-  <si>
-    <t>http://www.kgbls.co.kr/tracing.asp?number=</t>
-  </si>
-  <si>
-    <t>KG로지스</t>
-  </si>
-  <si>
-    <t>대신택배</t>
-  </si>
-  <si>
-    <t>합동택배</t>
-  </si>
-  <si>
-    <t>http://service.epost.go.kr/trace.RetrieveRegiPrclDeliv.postal?sid1=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.hanjinexpress.hanjin.net/customer/plsql/hddcw07.result?wbl_num=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.ilogen.com/d2d/delivery/invoice_search_popup.jsp?viewType=type1&amp;invoiceNum=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅇ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.kdexp.com/newDeliverySearch.kd?barcode=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.kgbls.co.kr/tracing.asp?number=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apps.ds3211.co.kr/freight/internalFreightSearch.ht?billno=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.hdexp.co.kr/deliverySearch2.hd?barcode=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>송장번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.ilogen.com/d2d/delivery/invoice_search_popup.jsp?viewType=type1&amp;invoiceNum=97086683886</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6863233791326</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>613579477731</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90874465242</t>
-  </si>
-  <si>
-    <t>롯데택배</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>305586864122</t>
-  </si>
-  <si>
-    <t>412179452204</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>613158314751</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>613142601840</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6069509124652</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>613024288002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>613225858134</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,269 +520,308 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="H5" sqref="H5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.125" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="92.75" customWidth="1"/>
-    <col min="4" max="5" width="16.625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="3" customWidth="1"/>
-    <col min="8" max="14" width="9" style="3"/>
+    <col min="2" max="2" width="3.125" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="92.75" customWidth="1"/>
+    <col min="5" max="6" width="16.625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="3" customWidth="1"/>
+    <col min="9" max="15" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1">
-        <v>43116.628437500003</v>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E2" s="1">
         <v>43116.628437500003</v>
       </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>27</v>
+      <c r="F2" s="1">
+        <v>43116.628437500003</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1">
-        <v>43116.628437500003</v>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E3" s="1">
         <v>43116.628437500003</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F3" s="1">
+        <v>43116.628437500003</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
+      <c r="B4">
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1">
-        <v>43116.628437500003</v>
+        <v>35</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="E4" s="1">
         <v>43116.628437500003</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>36</v>
+      <c r="F4" s="1">
+        <v>43116.628437500003</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1">
-        <v>43116.628437500003</v>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="E5" s="1">
         <v>43116.628437500003</v>
       </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="F5" s="1">
+        <v>43116.628437500003</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="3">
         <v>97086683886</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1">
-        <v>43116.628437500003</v>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E6" s="1">
         <v>43116.628437500003</v>
       </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F6" s="1">
+        <v>43116.628437500003</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1">
-        <v>43116.628437500003</v>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E7" s="1">
         <v>43116.628437500003</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F7" s="1">
+        <v>43116.628437500003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
+      <c r="B8">
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1">
-        <v>43116.628437500003</v>
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
       </c>
       <c r="E8" s="1">
         <v>43116.628437500003</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F8" s="1">
+        <v>43116.628437500003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="1">
-        <v>43116.628437500003</v>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E9" s="1">
         <v>43116.628437500003</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F9" s="1">
+        <v>43116.628437500003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1">
+        <v>43116.628437500003</v>
+      </c>
+      <c r="F10" s="1">
+        <v>43116.628437500003</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D15" s="2"/>
+      <c r="F15" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D10" s="1">
-        <v>43116.628437500003</v>
-      </c>
-      <c r="E10" s="1">
-        <v>43116.628437500003</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C13" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
-    <hyperlink ref="C7" r:id="rId5"/>
-    <hyperlink ref="C9" r:id="rId6"/>
-    <hyperlink ref="C10" r:id="rId7"/>
-    <hyperlink ref="E15" r:id="rId8"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D7" r:id="rId5"/>
+    <hyperlink ref="D9" r:id="rId6"/>
+    <hyperlink ref="D10" r:id="rId7"/>
+    <hyperlink ref="F15" r:id="rId8"/>
+    <hyperlink ref="D4" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
--- a/배송조회.xlsx
+++ b/배송조회.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -53,46 +53,136 @@
     <t>경동택배</t>
   </si>
   <si>
+    <t>대신택배</t>
+  </si>
+  <si>
+    <t>합동택배</t>
+  </si>
+  <si>
+    <t>http://service.epost.go.kr/trace.RetrieveRegiPrclDeliv.postal?sid1=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.hanjinexpress.hanjin.net/customer/plsql/hddcw07.result?wbl_num=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ilogen.com/d2d/delivery/invoice_search_popup.jsp?viewType=type1&amp;invoiceNum=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.kdexp.com/newDeliverySearch.kd?barcode=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.kgbls.co.kr/tracing.asp?number=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송장번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ilogen.com/d2d/delivery/invoice_search_popup.jsp?viewType=type1&amp;invoiceNum=97086683886</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6863233791326</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>613579477731</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90874465242</t>
+  </si>
+  <si>
+    <t>롯데택배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>412179452204</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>613158314751</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>613142601840</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6069509124652</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>613024288002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>613225858134</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ대한통운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.doortodoor.co.kr/parcel/doortodoor.do?fsp_action=PARC_ACT_002&amp;fsp_cmd=retrieveInvNoACT&amp;invc_no=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.kgbls.co.kr/tracing.asp?number=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KG로지스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>KGB택배</t>
-  </si>
-  <si>
-    <t>http://www.kgbls.co.kr/tracing.asp?number=</t>
-  </si>
-  <si>
-    <t>KG로지스</t>
-  </si>
-  <si>
-    <t>대신택배</t>
-  </si>
-  <si>
-    <t>합동택배</t>
-  </si>
-  <si>
-    <t>http://service.epost.go.kr/trace.RetrieveRegiPrclDeliv.postal?sid1=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.hanjinexpress.hanjin.net/customer/plsql/hddcw07.result?wbl_num=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.ilogen.com/d2d/delivery/invoice_search_popup.jsp?viewType=type1&amp;invoiceNum=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅇ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.kdexp.com/newDeliverySearch.kd?barcode=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.kgbls.co.kr/tracing.asp?number=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3109010400362</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON(ok)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>149077915792</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.kglogis.co.kr/delivery/delivery_result.j네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">form data : item_no: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9332280100153</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.hdexp.co.kr/deliverySearch2.hd?barcode=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -100,70 +190,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.hdexp.co.kr/deliverySearch2.hd?barcode=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>송장번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.ilogen.com/d2d/delivery/invoice_search_popup.jsp?viewType=type1&amp;invoiceNum=97086683886</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6863233791326</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>613579477731</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90874465242</t>
-  </si>
-  <si>
-    <t>롯데택배</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>412179452204</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>613158314751</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>613142601840</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6069509124652</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>613024288002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>613225858134</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ대한통운</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.doortodoor.co.kr/parcel/doortodoor.do?fsp_action=PARC_ACT_002&amp;fsp_cmd=retrieveInvNoACT&amp;invc_no=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>305586864122</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
+    <t>6201045200002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -175,7 +202,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +226,14 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="17"/>
+      <color rgb="FF000000"/>
+      <name val="나눔고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -226,7 +261,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -238,6 +273,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -523,7 +564,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -554,7 +595,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -568,22 +609,22 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1">
+        <v>43116.628437500003</v>
+      </c>
+      <c r="F2" s="1">
+        <v>43116.628437500003</v>
+      </c>
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1">
-        <v>43116.628437500003</v>
-      </c>
-      <c r="F2" s="1">
-        <v>43116.628437500003</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -597,7 +638,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1">
         <v>43116.628437500003</v>
@@ -606,10 +647,10 @@
         <v>43116.628437500003</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -620,10 +661,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1">
         <v>43116.628437500003</v>
@@ -632,22 +673,22 @@
         <v>43116.628437500003</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -661,7 +702,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1">
         <v>43116.628437500003</v>
@@ -670,13 +711,13 @@
         <v>43116.628437500003</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H5" s="3">
         <v>97086683886</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -690,7 +731,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1">
         <v>43116.628437500003</v>
@@ -699,7 +740,10 @@
         <v>43116.628437500003</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>37</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -710,16 +754,19 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1">
         <v>43116.628437500003</v>
       </c>
       <c r="F7" s="1">
         <v>43116.628437500003</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -730,16 +777,28 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="E8" s="1">
         <v>43116.628437500003</v>
       </c>
       <c r="F8" s="1">
         <v>43116.628437500003</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -750,16 +809,22 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1">
         <v>43116.628437500003</v>
       </c>
       <c r="F9" s="1">
         <v>43116.628437500003</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -770,10 +835,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1">
         <v>43116.628437500003</v>
@@ -782,7 +847,10 @@
         <v>43116.628437500003</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>37</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -790,22 +858,22 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -820,8 +888,10 @@
     <hyperlink ref="D10" r:id="rId7"/>
     <hyperlink ref="F15" r:id="rId8"/>
     <hyperlink ref="D4" r:id="rId9"/>
+    <hyperlink ref="D8" r:id="rId10"/>
+    <hyperlink ref="I8" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId12"/>
 </worksheet>
 </file>